--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Hspg2-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Hspg2-Itgb1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>155.2138263333333</v>
+        <v>224.7833046666667</v>
       </c>
       <c r="H2">
-        <v>465.641479</v>
+        <v>674.349914</v>
       </c>
       <c r="I2">
-        <v>0.3492508712612995</v>
+        <v>0.3882379172278888</v>
       </c>
       <c r="J2">
-        <v>0.3492508712612995</v>
+        <v>0.3882379172278889</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N2">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O2">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P2">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q2">
-        <v>23829.82623350332</v>
+        <v>32751.09487856755</v>
       </c>
       <c r="R2">
-        <v>214468.4361015299</v>
+        <v>294759.8539071079</v>
       </c>
       <c r="S2">
-        <v>0.1107896047681023</v>
+        <v>0.1112665703005874</v>
       </c>
       <c r="T2">
-        <v>0.1107896047681023</v>
+        <v>0.1112665703005874</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>155.2138263333333</v>
+        <v>224.7833046666667</v>
       </c>
       <c r="H3">
-        <v>465.641479</v>
+        <v>674.349914</v>
       </c>
       <c r="I3">
-        <v>0.3492508712612995</v>
+        <v>0.3882379172278888</v>
       </c>
       <c r="J3">
-        <v>0.3492508712612995</v>
+        <v>0.3882379172278889</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O3">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P3">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q3">
-        <v>26200.04773482231</v>
+        <v>37943.35499216409</v>
       </c>
       <c r="R3">
-        <v>235800.4296134008</v>
+        <v>341490.1949294768</v>
       </c>
       <c r="S3">
-        <v>0.1218092362488722</v>
+        <v>0.1289064378253366</v>
       </c>
       <c r="T3">
-        <v>0.1218092362488722</v>
+        <v>0.1289064378253367</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>155.2138263333333</v>
+        <v>224.7833046666667</v>
       </c>
       <c r="H4">
-        <v>465.641479</v>
+        <v>674.349914</v>
       </c>
       <c r="I4">
-        <v>0.3492508712612995</v>
+        <v>0.3882379172278888</v>
       </c>
       <c r="J4">
-        <v>0.3492508712612995</v>
+        <v>0.3882379172278889</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N4">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O4">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P4">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q4">
-        <v>14522.22047830446</v>
+        <v>28800.62046020579</v>
       </c>
       <c r="R4">
-        <v>130699.9843047401</v>
+        <v>259205.5841418521</v>
       </c>
       <c r="S4">
-        <v>0.06751669321384136</v>
+        <v>0.09784546968636131</v>
       </c>
       <c r="T4">
-        <v>0.06751669321384136</v>
+        <v>0.09784546968636132</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>155.2138263333333</v>
+        <v>224.7833046666667</v>
       </c>
       <c r="H5">
-        <v>465.641479</v>
+        <v>674.349914</v>
       </c>
       <c r="I5">
-        <v>0.3492508712612995</v>
+        <v>0.3882379172278888</v>
       </c>
       <c r="J5">
-        <v>0.3492508712612995</v>
+        <v>0.3882379172278889</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N5">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O5">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P5">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q5">
-        <v>10568.55962084052</v>
+        <v>14781.99265606573</v>
       </c>
       <c r="R5">
-        <v>95117.03658756465</v>
+        <v>133037.9339045916</v>
       </c>
       <c r="S5">
-        <v>0.04913533703048364</v>
+        <v>0.05021943941560349</v>
       </c>
       <c r="T5">
-        <v>0.04913533703048364</v>
+        <v>0.0502194394156035</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>738.543487</v>
       </c>
       <c r="I6">
-        <v>0.5539389593320749</v>
+        <v>0.4251955538547045</v>
       </c>
       <c r="J6">
-        <v>0.5539389593320749</v>
+        <v>0.4251955538547046</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N6">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O6">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P6">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q6">
-        <v>37795.95193901448</v>
+        <v>35868.77867487222</v>
       </c>
       <c r="R6">
-        <v>340163.5674511303</v>
+        <v>322819.00807385</v>
       </c>
       <c r="S6">
-        <v>0.175720902709327</v>
+        <v>0.1218583988969359</v>
       </c>
       <c r="T6">
-        <v>0.175720902709327</v>
+        <v>0.121858398896936</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>738.543487</v>
       </c>
       <c r="I7">
-        <v>0.5539389593320749</v>
+        <v>0.4251955538547045</v>
       </c>
       <c r="J7">
-        <v>0.5539389593320749</v>
+        <v>0.4251955538547046</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O7">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P7">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q7">
         <v>41555.30700400107</v>
@@ -883,10 +883,10 @@
         <v>373997.7630360097</v>
       </c>
       <c r="S7">
-        <v>0.193198892592747</v>
+        <v>0.1411774630822787</v>
       </c>
       <c r="T7">
-        <v>0.193198892592747</v>
+        <v>0.1411774630822787</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>738.543487</v>
       </c>
       <c r="I8">
-        <v>0.5539389593320749</v>
+        <v>0.4251955538547045</v>
       </c>
       <c r="J8">
-        <v>0.5539389593320749</v>
+        <v>0.4251955538547046</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N8">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O8">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P8">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q8">
-        <v>23033.36759015359</v>
+        <v>31542.24568114044</v>
       </c>
       <c r="R8">
-        <v>207300.3083113823</v>
+        <v>283880.211130264</v>
       </c>
       <c r="S8">
-        <v>0.1070867100240862</v>
+        <v>0.1071596998369574</v>
       </c>
       <c r="T8">
-        <v>0.1070867100240862</v>
+        <v>0.1071596998369575</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>738.543487</v>
       </c>
       <c r="I9">
-        <v>0.5539389593320749</v>
+        <v>0.4251955538547045</v>
       </c>
       <c r="J9">
-        <v>0.5539389593320749</v>
+        <v>0.4251955538547046</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N9">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O9">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P9">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q9">
-        <v>16762.55494185249</v>
+        <v>16189.13886451416</v>
       </c>
       <c r="R9">
-        <v>150862.9944766724</v>
+        <v>145702.2497806274</v>
       </c>
       <c r="S9">
-        <v>0.07793245400591474</v>
+        <v>0.05499999203853245</v>
       </c>
       <c r="T9">
-        <v>0.07793245400591474</v>
+        <v>0.05499999203853246</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>42.784114</v>
+        <v>107.695137</v>
       </c>
       <c r="H10">
-        <v>128.352342</v>
+        <v>323.085411</v>
       </c>
       <c r="I10">
-        <v>0.09626970382492123</v>
+        <v>0.186007300437435</v>
       </c>
       <c r="J10">
-        <v>0.09626970382492124</v>
+        <v>0.186007300437435</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N10">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O10">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P10">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q10">
-        <v>6568.602979897308</v>
+        <v>15691.26165787869</v>
       </c>
       <c r="R10">
-        <v>59117.42681907578</v>
+        <v>141221.3549209082</v>
       </c>
       <c r="S10">
-        <v>0.0305387425359507</v>
+        <v>0.05330853441189239</v>
       </c>
       <c r="T10">
-        <v>0.03053874253595071</v>
+        <v>0.0533085344118924</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>42.784114</v>
+        <v>107.695137</v>
       </c>
       <c r="H11">
-        <v>128.352342</v>
+        <v>323.085411</v>
       </c>
       <c r="I11">
-        <v>0.09626970382492123</v>
+        <v>0.186007300437435</v>
       </c>
       <c r="J11">
-        <v>0.09626970382492124</v>
+        <v>0.186007300437435</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O11">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P11">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q11">
-        <v>7221.945722056771</v>
+        <v>18178.90710424594</v>
       </c>
       <c r="R11">
-        <v>64997.51149851094</v>
+        <v>163610.1639382134</v>
       </c>
       <c r="S11">
-        <v>0.03357626297242741</v>
+        <v>0.06175990918172614</v>
       </c>
       <c r="T11">
-        <v>0.03357626297242741</v>
+        <v>0.06175990918172616</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>42.784114</v>
+        <v>107.695137</v>
       </c>
       <c r="H12">
-        <v>128.352342</v>
+        <v>323.085411</v>
       </c>
       <c r="I12">
-        <v>0.09626970382492123</v>
+        <v>0.186007300437435</v>
       </c>
       <c r="J12">
-        <v>0.09626970382492124</v>
+        <v>0.186007300437435</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N12">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O12">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P12">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q12">
-        <v>4002.996067776722</v>
+        <v>13798.56378010986</v>
       </c>
       <c r="R12">
-        <v>36026.96460999049</v>
+        <v>124187.0740209887</v>
       </c>
       <c r="S12">
-        <v>0.01861072539478822</v>
+        <v>0.04687839819032895</v>
       </c>
       <c r="T12">
-        <v>0.01861072539478822</v>
+        <v>0.04687839819032896</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>42.784114</v>
+        <v>107.695137</v>
       </c>
       <c r="H13">
-        <v>128.352342</v>
+        <v>323.085411</v>
       </c>
       <c r="I13">
-        <v>0.09626970382492123</v>
+        <v>0.186007300437435</v>
       </c>
       <c r="J13">
-        <v>0.09626970382492124</v>
+        <v>0.186007300437435</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N13">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O13">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P13">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q13">
-        <v>2913.184155790193</v>
+        <v>7082.148412172823</v>
       </c>
       <c r="R13">
-        <v>26218.65740211174</v>
+        <v>63739.33570955541</v>
       </c>
       <c r="S13">
-        <v>0.01354397292175489</v>
+        <v>0.0240604586534875</v>
       </c>
       <c r="T13">
-        <v>0.01354397292175489</v>
+        <v>0.02406045865348751</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.2401933333333333</v>
+        <v>0.323784</v>
       </c>
       <c r="H14">
-        <v>0.72058</v>
+        <v>0.971352</v>
       </c>
       <c r="I14">
-        <v>0.0005404655817044752</v>
+        <v>0.0005592284799715185</v>
       </c>
       <c r="J14">
-        <v>0.0005404655817044752</v>
+        <v>0.0005592284799715186</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N14">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O14">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P14">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q14">
-        <v>36.87664643668444</v>
+        <v>47.175569911152</v>
       </c>
       <c r="R14">
-        <v>331.88981793016</v>
+        <v>424.580129200368</v>
       </c>
       <c r="S14">
-        <v>0.0001714468684689475</v>
+        <v>0.0001602714011684684</v>
       </c>
       <c r="T14">
-        <v>0.0001714468684689475</v>
+        <v>0.0001602714011684684</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.2401933333333333</v>
+        <v>0.323784</v>
       </c>
       <c r="H15">
-        <v>0.72058</v>
+        <v>0.971352</v>
       </c>
       <c r="I15">
-        <v>0.0005404655817044752</v>
+        <v>0.0005592284799715185</v>
       </c>
       <c r="J15">
-        <v>0.0005404655817044752</v>
+        <v>0.0005592284799715186</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O15">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P15">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q15">
-        <v>40.54456324918223</v>
+        <v>54.65464292822401</v>
       </c>
       <c r="R15">
-        <v>364.9010692426401</v>
+        <v>491.8917863540161</v>
       </c>
       <c r="S15">
-        <v>0.0001884997437185194</v>
+        <v>0.0001856803472425688</v>
       </c>
       <c r="T15">
-        <v>0.0001884997437185193</v>
+        <v>0.0001856803472425688</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.2401933333333333</v>
+        <v>0.323784</v>
       </c>
       <c r="H16">
-        <v>0.72058</v>
+        <v>0.971352</v>
       </c>
       <c r="I16">
-        <v>0.0005404655817044752</v>
+        <v>0.0005592284799715185</v>
       </c>
       <c r="J16">
-        <v>0.0005404655817044752</v>
+        <v>0.0005592284799715186</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N16">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O16">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P16">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q16">
-        <v>22.47313030344667</v>
+        <v>41.48519886259201</v>
       </c>
       <c r="R16">
-        <v>202.25817273102</v>
+        <v>373.366789763328</v>
       </c>
       <c r="S16">
-        <v>0.0001044820553798426</v>
+        <v>0.0001409392819627266</v>
       </c>
       <c r="T16">
-        <v>0.0001044820553798426</v>
+        <v>0.0001409392819627266</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.2401933333333333</v>
+        <v>0.323784</v>
       </c>
       <c r="H17">
-        <v>0.72058</v>
+        <v>0.971352</v>
       </c>
       <c r="I17">
-        <v>0.0005404655817044752</v>
+        <v>0.0005592284799715185</v>
       </c>
       <c r="J17">
-        <v>0.0005404655817044752</v>
+        <v>0.0005592284799715186</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N17">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O17">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P17">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q17">
-        <v>16.35484172917778</v>
+        <v>21.292385202936</v>
       </c>
       <c r="R17">
-        <v>147.1935755626</v>
+        <v>191.631466826424</v>
       </c>
       <c r="S17">
-        <v>7.603691413716581E-05</v>
+        <v>7.23374495977548E-05</v>
       </c>
       <c r="T17">
-        <v>7.603691413716581E-05</v>
+        <v>7.233744959775481E-05</v>
       </c>
     </row>
   </sheetData>
